--- a/1주차-개별플젝1/실습1-요구사항.xlsx
+++ b/1주차-개별플젝1/실습1-요구사항.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tkdle\OneDrive\바탕 화면\SW-camp-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tkdle\OneDrive\바탕 화면\SW-camp-Project\1주차-개별플젝1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB7C04C-B04B-41C4-B8D4-1C914418C81B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B57ECF-1198-4010-81F3-18211D32FC74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AC15D6F0-EE62-4228-A79F-CB9E2B0BE20A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="56">
   <si>
     <t>Req.ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -157,23 +157,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ACC off에서 standby로 전환되는 경우 속도를 현재 속도를 유지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>acc_sw_05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장애물이 50cm이하를 유지할 경우 첫 감속한 속도로 유지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>감속모드는 ACC의 동작 상관없이 모터의 속도가 줄어들면 동작</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정지모드는 ACC동작 상관없이 모터가 멈추면 동작</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -194,19 +178,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ACC on모드일 때 가변저항값을 올릴때 감속한 속도를 초과할 수 없음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50cm이내의 장애물이 벗어날 경우 이전 on의 모터속도로 다시 가속후 유지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10cm이내에 있던 장애물이 10cm를 초과할 경우 가변저항값을 읽어 처음 감속된 속도보다 작으면 모터속도 조정
-처음 감속된 속도보다 높을경우 감속된 속도로 가속</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>acc_sw_11</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -220,6 +191,77 @@
   </si>
   <si>
     <t>가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acc_sw_12</t>
+  </si>
+  <si>
+    <t>정지모드는 ACC동작 상관없이 모터의 속도가 0인 경우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>감속모드는 ACC on에서 설정된 모터 속도보다 작을 경우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장성준/2024-01-31</t>
+  </si>
+  <si>
+    <t>장성준/2024-01-31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACC standby모드에서 on상태로 변경될 경우 현재 가변저항값을 읽어 모터속도 결정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가변저항을 오른쪽으로 돌리면 가속, 왼쪽으로 돌리면 감속</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACC on모드일 때 가변저항을 오른쪽으로 돌려도 감속한 속도를 초과할 수 없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검토요청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACC on 모드일 경우
+1. 10cm이내에 있던 장애물이 10cm를 초과할 경우 가변저항값을 읽어 처음 감속된 속도보다 작으면 모터속도 조정
+2. 처음 감속된 속도보다 높을경우 감속된 속도로 가속</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACC standby 모드일 경우
+1.처음 감속된 속도로 모터 조정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACC standby 모드일 경우
+1.감속되기 전 속도로 모터 조정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACC on 모드일 경우
+50cm이내에 있던 장애물이 50cm를 초과할 때 벗어날 경우 현재 가변저항값을 토대로 모터속도 조정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACC off에서 standby로 모드가 변경될 경우 모터속도 0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -587,16 +629,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB016229-E640-438D-A7DC-0F8D88531497}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="110" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="110" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="87.375" customWidth="1"/>
     <col min="4" max="4" width="11.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -691,7 +733,7 @@
     </row>
     <row r="6" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>17</v>
@@ -706,63 +748,63 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>1</v>
+    <row r="7" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7" t="s">
         <v>25</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>11</v>
+      <c r="A8">
+        <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="C10" t="s">
         <v>23</v>
@@ -771,15 +813,15 @@
         <v>25</v>
       </c>
       <c r="F10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s">
         <v>23</v>
@@ -793,52 +835,61 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C13" t="s">
         <v>23</v>
       </c>
       <c r="E13" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>37</v>
+    <row r="14" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>1</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="C15" t="s">
         <v>24</v>
@@ -847,72 +898,72 @@
         <v>25</v>
       </c>
       <c r="F15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="1" t="s">
+    <row r="17" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>22</v>
-      </c>
-      <c r="E16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>1</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" t="s">
-        <v>23</v>
       </c>
       <c r="E17" t="s">
         <v>25</v>
       </c>
       <c r="F17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>13</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>1</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18" t="s">
         <v>25</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="E19" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
         <v>28</v>
@@ -920,19 +971,70 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="E20" t="s">
         <v>25</v>
       </c>
       <c r="F20" t="s">
-        <v>45</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/1주차-개별플젝1/실습1-요구사항.xlsx
+++ b/1주차-개별플젝1/실습1-요구사항.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tkdle\OneDrive\바탕 화면\SW-camp-Project\1주차-개별플젝1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B57ECF-1198-4010-81F3-18211D32FC74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD19C2D-3B2E-432D-AD93-547343AB6187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AC15D6F0-EE62-4228-A79F-CB9E2B0BE20A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AC15D6F0-EE62-4228-A79F-CB9E2B0BE20A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="56">
   <si>
     <t>Req.ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -113,19 +113,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>감속모드일 경우 파란LED는 0.2초 주기로 점멸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACC on 상태와 ACC standby 상태에서 초음파 센서를 통해 
-10cm 이내 장애물이 있을 경우 모터의 브레이크를 통해 정지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정지모드일 경우 파란LED는 항상 켜져있음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>상</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -174,10 +161,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ACC on모드일 때 가변저항값을 내리면 감속</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>acc_sw_11</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -197,14 +180,6 @@
     <t>acc_sw_12</t>
   </si>
   <si>
-    <t>정지모드는 ACC동작 상관없이 모터의 속도가 0인 경우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>감속모드는 ACC on에서 설정된 모터 속도보다 작을 경우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>장성준/2024-01-31</t>
   </si>
   <si>
@@ -212,10 +187,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ACC standby모드에서 on상태로 변경될 경우 현재 가변저항값을 읽어 모터속도 결정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>가능</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -225,10 +196,6 @@
   </si>
   <si>
     <t>상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACC on모드일 때 가변저항을 오른쪽으로 돌려도 감속한 속도를 초과할 수 없음</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -261,7 +228,40 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ACC off에서 standby로 모드가 변경될 경우 모터속도 0</t>
+    <t>장성준/2024-02-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACC standby모드에서 on상태로 변경될 경우 현재 가변저항값을 읽어 모터속도 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청색LED는 0.2초 주기로 깜박여 감속모드임을 나타낸다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>감속모드는 ACC on과 standby에서 설정된 모터 속도보다 작을 경우를 나타낸다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청색LED는 항상 켜져있게하여 정지 모드임을 나타낸다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정지모드는 ACC on과 standby에서만 동작한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACC on모드일 때 가변저항을 오른쪽으로 돌려 속도를 증가시키려고 해도 50%로 감속한 속도를 초과할 수 없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACC on모드일 때 가변저항값을 왼쪽으로 돌려 감속가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACC on 상태와 ACC standby 상태에서 초음파 센서를 통해 
+10cm 이내 장애물이 있을 경우 모터의 브레이크를 통해 정지한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -631,19 +631,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB016229-E640-438D-A7DC-0F8D88531497}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="110" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="110" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="87.375" customWidth="1"/>
-    <col min="4" max="4" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="87.3984375" customWidth="1"/>
+    <col min="4" max="4" width="11.19921875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -663,7 +663,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -671,16 +671,16 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -688,16 +688,16 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -705,16 +705,16 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -722,84 +722,84 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
         <v>22</v>
       </c>
-      <c r="E5" t="s">
-        <v>25</v>
-      </c>
       <c r="F5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>30</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
         <v>22</v>
       </c>
-      <c r="E6" t="s">
-        <v>25</v>
-      </c>
       <c r="F6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
         <v>22</v>
       </c>
-      <c r="E7" t="s">
-        <v>25</v>
-      </c>
       <c r="F7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E8" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -807,234 +807,232 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" t="s">
         <v>25</v>
       </c>
-      <c r="F11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>2</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>3</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" t="s">
         <v>24</v>
       </c>
-      <c r="E15" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>1</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="C16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" t="s">
         <v>24</v>
       </c>
-      <c r="E16" t="s">
-        <v>43</v>
-      </c>
-      <c r="F16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" t="s">
-        <v>25</v>
-      </c>
-      <c r="F17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>1</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" t="s">
         <v>25</v>
       </c>
-      <c r="F18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>2</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C19" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>13</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" t="s">
         <v>21</v>
       </c>
-      <c r="C20" t="s">
-        <v>24</v>
-      </c>
       <c r="E20" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>1</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" t="s">
         <v>40</v>
       </c>
-      <c r="C21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" t="s">
-        <v>43</v>
-      </c>
-      <c r="F21" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" t="s">
-        <v>37</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="E23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" t="s">
         <v>25</v>
-      </c>
-      <c r="F22" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" t="s">
-        <v>47</v>
-      </c>
-      <c r="E23" t="s">
-        <v>43</v>
-      </c>
-      <c r="F23" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/1주차-개별플젝1/실습1-요구사항.xlsx
+++ b/1주차-개별플젝1/실습1-요구사항.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tkdle\OneDrive\바탕 화면\SW-camp-Project\1주차-개별플젝1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD19C2D-3B2E-432D-AD93-547343AB6187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B397B25F-82B6-401F-A757-EA09F56F482E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AC15D6F0-EE62-4228-A79F-CB9E2B0BE20A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AC15D6F0-EE62-4228-A79F-CB9E2B0BE20A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="55">
   <si>
     <t>Req.ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,10 +59,6 @@
   </si>
   <si>
     <t>승인/비고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACC모드 3단계(ACC off, ACC standby, ACC on)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -93,26 +89,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ACC off는 적색 LED가 1초주기로 점멸
-ACC standby는 적색 LED가 0.2초 주기로 점멸
-ACC on은 적색 LED가 항상 켜져있음.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SW2를 누르면 언제든지 ACC off상태로 전환</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACC on 상태와 ACC standby 상태에서만 모터구동
-ACC off 상태에서 모터는 멈춤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACC on 상태와 ACC standby 상태에서 초음파센서를 통해
-50m 이내 장애물이 있을 경우 모터의 현재속도 대비 50%로 감속</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>상</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -152,11 +128,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ACC on 상태에서 가변저항을 조절하여 모터속도 조절
-ACC standby상태에서 가변저항을 조절해도 속조 조절 불가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>acc_sw_08</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -165,10 +136,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>감속모드와 정지모드 이외에 파란LED는 꺼져있음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>하</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -177,21 +144,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>acc_sw_12</t>
-  </si>
-  <si>
     <t>장성준/2024-01-31</t>
-  </si>
-  <si>
-    <t>장성준/2024-01-31</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가변저항을 오른쪽으로 돌리면 가속, 왼쪽으로 돌리면 감속</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -203,39 +156,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ACC on 모드일 경우
-1. 10cm이내에 있던 장애물이 10cm를 초과할 경우 가변저항값을 읽어 처음 감속된 속도보다 작으면 모터속도 조정
-2. 처음 감속된 속도보다 높을경우 감속된 속도로 가속</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACC standby 모드일 경우
-1.처음 감속된 속도로 모터 조정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>중</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ACC standby 모드일 경우
-1.감속되기 전 속도로 모터 조정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACC on 모드일 경우
-50cm이내에 있던 장애물이 50cm를 초과할 때 벗어날 경우 현재 가변저항값을 토대로 모터속도 조정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>장성준/2024-02-01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ACC standby모드에서 on상태로 변경될 경우 현재 가변저항값을 읽어 모터속도 설정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>청색LED는 0.2초 주기로 깜박여 감속모드임을 나타낸다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -249,19 +177,86 @@
   </si>
   <si>
     <t>정지모드는 ACC on과 standby에서만 동작한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACC on모드일 때 가변저항을 오른쪽으로 돌려 속도를 증가시키려고 해도 50%로 감속한 속도를 초과할 수 없음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACC on모드일 때 가변저항값을 왼쪽으로 돌려 감속가능</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ACC on 상태와 ACC standby 상태에서 초음파 센서를 통해 
 10cm 이내 장애물이 있을 경우 모터의 브레이크를 통해 정지한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장성준/2024-02-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACC standby 모드일 경우 감속하기 전 속도로 되돌린다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACC on 모드일 경우 장애물이 50cm를 초과할 경우 현재 가변저항값을 통해 모터속도 조정한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACC on모드일 때 가변저항값을 왼쪽으로 돌려 감속가능하다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACC on모드일 때 가변저항을 오른쪽으로 돌려도 해도 처음 감속된 속도를 초과할 수 없다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACC모드 3단계이다.(ACC off, ACC standby, ACC on)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACC off에서 standby모드로 또는, standby에서 on으로 전환될 경우 현재 가변저항값을 읽어 모터속도를 설정한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACC off는 적색 LED가 1초주기로 점멸한다.
+ACC standby는 적색 LED가 0.2초 주기로 점멸한다.
+ACC on은 적색 LED가 항상 켜져있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SW2를 누르면 어떤 모드이던 상관없이 ACC off상태로 전환한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACC on 상태와 ACC standby 상태에서만 모터구동한다.
+ACC off 상태에서 모터는 멈춘다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACC on 상태에서 가변저항을 조절하여 모터속도 조절한다.
+ACC standby상태에서 가변저항을 조절해도 속조 조절이 불가능하다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가변저항을 오른쪽으로 돌리면 가속, 왼쪽으로 돌리면 감속한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가변저항(0~1023)의 값으로 모터속도 설정한다.(0~255)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACC on 상태와 ACC standby 상태에서 초음파센서를 통해
+50m 이내 장애물이 있을 경우 모터의 현재속도 대비 50%로 감속한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACC standby 모드일 경우 처음 감속된 속도로 모터 조정한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACC on 모드일 경우
+1. 장애물이 10cm를 초과, 50cm 이하일 경우 가변저항값을 읽어 처음 감속된 속도보다 작으면 모터속도 조정한다.
+2. 처음 감속된 속도보다 높을경우 감속된 속도로 가속한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>감속모드와 정지모드가 아니면 파란LED는 꺼져있다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -629,21 +624,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB016229-E640-438D-A7DC-0F8D88531497}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="110" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="110" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.69921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="87.3984375" customWidth="1"/>
-    <col min="4" max="4" width="11.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="100.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -663,377 +658,382 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
         <v>19</v>
       </c>
-      <c r="E2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" t="s">
         <v>19</v>
       </c>
-      <c r="E3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s">
+    </row>
+    <row r="7" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>22</v>
       </c>
-      <c r="F4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
+      <c r="B7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A8">
-        <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E8" t="s">
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="C22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" t="s">
         <v>20</v>
       </c>
-      <c r="E10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" t="s">
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A12">
-        <v>2</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A13">
-        <v>3</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A14">
-        <v>4</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A16">
-        <v>1</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" t="s">
-        <v>47</v>
-      </c>
-      <c r="F16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="A18">
-        <v>1</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A19">
-        <v>2</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" t="s">
-        <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" t="s">
-        <v>22</v>
-      </c>
-      <c r="F20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A21">
-        <v>1</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" t="s">
-        <v>37</v>
-      </c>
-      <c r="F21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="1" t="s">
+      <c r="E23" t="s">
         <v>32</v>
       </c>
-      <c r="C22" t="s">
-        <v>33</v>
-      </c>
-      <c r="E22" t="s">
-        <v>22</v>
-      </c>
-      <c r="F22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="1"/>
-      <c r="C23" t="s">
-        <v>40</v>
-      </c>
-      <c r="E23" t="s">
-        <v>47</v>
-      </c>
       <c r="F23" t="s">
-        <v>25</v>
-      </c>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B24" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/1주차-개별플젝1/실습1-요구사항.xlsx
+++ b/1주차-개별플젝1/실습1-요구사항.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tkdle\OneDrive\바탕 화면\SW-camp-Project\1주차-개별플젝1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B397B25F-82B6-401F-A757-EA09F56F482E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25818F5F-007A-4242-97A5-78815A2435EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AC15D6F0-EE62-4228-A79F-CB9E2B0BE20A}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{AC15D6F0-EE62-4228-A79F-CB9E2B0BE20A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="57">
   <si>
     <t>Req.ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -168,15 +168,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>감속모드는 ACC on과 standby에서 설정된 모터 속도보다 작을 경우를 나타낸다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>청색LED는 항상 켜져있게하여 정지 모드임을 나타낸다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정지모드는 ACC on과 standby에서만 동작한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -257,6 +249,22 @@
   </si>
   <si>
     <t>감속모드와 정지모드가 아니면 파란LED는 꺼져있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정지모드는 모터의 속도가 0인 상태이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장성준/2024-02-02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장성준/2024-02-02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>감속모드는 모터의 속도가 0이 아니고, 장애물이 50cm이하인 상태이다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -626,19 +634,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB016229-E640-438D-A7DC-0F8D88531497}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="110" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="110" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="100.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="100.09765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.19921875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -658,12 +666,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
@@ -675,7 +683,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -692,29 +700,29 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
@@ -726,29 +734,29 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>22</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -760,12 +768,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -777,12 +785,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s">
         <v>29</v>
@@ -794,29 +802,29 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>2</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
         <v>15</v>
@@ -828,46 +836,46 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
         <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>2</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
         <v>29</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>3</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C14" t="s">
         <v>15</v>
@@ -879,12 +887,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
         <v>15</v>
@@ -896,7 +904,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -913,12 +921,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>1</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="C17" t="s">
         <v>16</v>
@@ -930,29 +938,29 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>23</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s">
         <v>14</v>
       </c>
       <c r="E18" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="F18" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>1</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C19" t="s">
         <v>15</v>
@@ -964,12 +972,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>2</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C20" t="s">
         <v>31</v>
@@ -981,12 +989,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>12</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C21" t="s">
         <v>16</v>
@@ -998,12 +1006,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>1</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="C22" t="s">
         <v>16</v>
@@ -1015,24 +1023,24 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>25</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C23" t="s">
         <v>26</v>
       </c>
       <c r="E23" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="F23" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B24" s="1"/>
     </row>
   </sheetData>
